--- a/Task -1/Protocol..xlsx
+++ b/Task -1/Protocol..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falcon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5PDJ00-CKN991J3FMM0\Documents\GitHub\Team-4\Task -1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30BC0C5-C632-FC45-A244-1EE2ACC815FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C55EBD-5CCC-4FD6-B762-5A2A9F0C8BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9996" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Serial</t>
   </si>
@@ -47,9 +39,6 @@
     <t>Todo</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Abdullah Al Forkan</t>
   </si>
   <si>
@@ -93,15 +82,79 @@
   </si>
   <si>
     <t>✔️</t>
+  </si>
+  <si>
+    <t>Sequence Diagram Update</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Done/Not Done</t>
+  </si>
+  <si>
+    <t>Requirement Diagram Update</t>
+  </si>
+  <si>
+    <t>State Machine Diagram Update</t>
+  </si>
+  <si>
+    <t>❌ (due to sickness)</t>
+  </si>
+  <si>
+    <t>Block Diagram Update</t>
+  </si>
+  <si>
+    <t>Activity Diagram Update</t>
+  </si>
+  <si>
+    <t>Package  Diagram Update</t>
+  </si>
+  <si>
+    <t>Presentation Preparation</t>
+  </si>
+  <si>
+    <t>✔️ (50%)</t>
+  </si>
+  <si>
+    <t>1st Prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Diagram </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,8 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,37 +466,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,100 +510,169 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>4</v>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Task -1/Protocol..xlsx
+++ b/Task -1/Protocol..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5PDJ00-CKN991J3FMM0\Documents\GitHub\Team-4\Task -1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C55EBD-5CCC-4FD6-B762-5A2A9F0C8BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD75811-CEDE-4101-96A4-E369B86C85C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9996" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,6 +672,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="NirHG1gr87bTi1aaKN7ESmWfXgymDclUBwxpBuOWjf8BgkjfitQVwPXFxmaoUjJqbH9C/mS2/H3CDJwx49y4uQ==" saltValue="7n4vGmGTftJ8tnv9JDFklg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Task -1/Protocol..xlsx
+++ b/Task -1/Protocol..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5PDJ00-CKN991J3FMM0\Documents\GitHub\Team-4\Task -1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD75811-CEDE-4101-96A4-E369B86C85C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF9F45-58C6-478D-93E5-D0387CD440FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9996" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Serial</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t xml:space="preserve">Block Diagram </t>
+  </si>
+  <si>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +163,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,16 +217,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,25 +593,25 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -571,25 +619,25 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -603,25 +651,25 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -629,25 +677,25 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -655,24 +703,32 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NirHG1gr87bTi1aaKN7ESmWfXgymDclUBwxpBuOWjf8BgkjfitQVwPXFxmaoUjJqbH9C/mS2/H3CDJwx49y4uQ==" saltValue="7n4vGmGTftJ8tnv9JDFklg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="St7egIQMrdJDGTXLVfG3S6Fo1g9qWDT9rPbRj1VS0wmNPBFsfmFDkX1SRCXb870NHgOXpunIXJ4bT2c8KzfUQA==" saltValue="ZfKvvjg6goWszZWsrCmm/w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
